--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_0_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_0_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.51000000000055</v>
+        <v>25.69000000000058</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>5.288324222973984e-10</v>
+        <v>8.792373606958392e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>5.288324222973984e-10</v>
+        <v>8.792373606958392e-09</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.9659915906138</v>
+        <v>46.5728414631709</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[32.15495168228141, 57.7770314989462]</t>
+          <t>[32.23372486717266, 60.91195805916913]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8.04131117249085e-09</v>
+        <v>4.886800630821142e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>8.04131117249085e-09</v>
+        <v>4.886800630821142e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.427710775505271</v>
+        <v>1.427710775505272</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1132370364071944, 1.7421845146033474]</t>
+          <t>[1.0629212381515014, 1.7925003128590422]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.94209142895852e-12</v>
+        <v>5.108320433322433e-10</v>
       </c>
       <c r="S2" t="n">
-        <v>7.94209142895852e-12</v>
+        <v>5.108320433322433e-10</v>
       </c>
       <c r="T2" t="n">
-        <v>46.02358740391225</v>
+        <v>57.04584444803056</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[38.24697699981616, 53.80019780800834]</t>
+          <t>[48.06788677043703, 66.0238021256241]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>19.71343343343386</v>
+        <v>19.85253253253298</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.43665665665706</v>
+        <v>18.36102102102143</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.99021021021066</v>
+        <v>21.34404404404452</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.51000000000055</v>
+        <v>25.69000000000058</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.667417938910898e-05</v>
+        <v>1.5748069515098e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.667417938910898e-05</v>
+        <v>1.5748069515098e-10</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>36.35370837144335</v>
+        <v>50.13902331139472</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[19.33897787266745, 53.368438870219244]</t>
+          <t>[35.59492813811012, 64.68311848467933]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8.961373182292398e-05</v>
+        <v>1.236382662916924e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>8.961373182292398e-05</v>
+        <v>1.236382662916924e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.276763380738194</v>
+        <v>1.226447582482503</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.710710650361654, 1.8428161111147334]</t>
+          <t>[0.9119738433844251, 1.54092132158058]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.141332652918273e-05</v>
+        <v>5.608367104059653e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>4.141332652918273e-05</v>
+        <v>5.608367104059653e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>48.11780257798508</v>
+        <v>54.37877368578868</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[38.241903129012115, 57.99370202695805]</t>
+          <t>[46.16600941751654, 62.59153795406082]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.356959651540819e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.356959651540819e-13</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20.32628628628672</v>
+        <v>20.6754354354359</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.02808808808847</v>
+        <v>19.38964964965008</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.62448448448497</v>
+        <v>21.96122122122171</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.51000000000055</v>
+        <v>25.69000000000058</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.768046185235406e-06</v>
+        <v>2.589625369697757e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>1.768046185235406e-06</v>
+        <v>2.589625369697757e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>37.086377310663</v>
+        <v>48.42157825414616</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[20.745854010717196, 53.4269006106088]</t>
+          <t>[30.400905776784185, 66.44225073150814]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.777544055760806e-05</v>
+        <v>2.308495029135216e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>3.777544055760806e-05</v>
+        <v>2.308495029135216e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5849211547224238</v>
+        <v>0.6352369529781168</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.11950002085727007, 1.0503422885875775]</t>
+          <t>[0.25786846606042424, 1.0126054398958093]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.01492979866304878</v>
+        <v>0.001461943992448367</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01492979866304878</v>
+        <v>0.001461943992448367</v>
       </c>
       <c r="T4" t="n">
-        <v>55.08416989796128</v>
+        <v>48.6343790685756</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.50790666666726, 63.6604331292553]</t>
+          <t>[39.38821005961305, 57.88054807753816]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.282263763703668e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.282263763703668e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>23.13519519519569</v>
+        <v>23.09271271271323</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.24556556556603</v>
+        <v>21.54976976977025</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.02482482482536</v>
+        <v>24.6356556556562</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.51000000000055</v>
+        <v>25.69000000000058</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.720845688168993e-12</v>
+        <v>3.897484601722567e-08</v>
       </c>
       <c r="I5" t="n">
-        <v>1.720845688168993e-12</v>
+        <v>3.897484601722567e-08</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>49.03478967860535</v>
+        <v>46.0052080473273</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[36.92715664459538, 61.14242271261532]</t>
+          <t>[30.068249010476542, 61.94216708417806]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.039557411848136e-10</v>
+        <v>5.889916725454469e-07</v>
       </c>
       <c r="O5" t="n">
-        <v>2.039557411848136e-10</v>
+        <v>5.889916725454469e-07</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3962369112635766</v>
+        <v>0.2956053147521933</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.15723686954903648, 0.6352369529781168]</t>
+          <t>[-0.09434212172942225, 0.6855527512338089]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001695163175830183</v>
+        <v>0.1338044896403581</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001695163175830183</v>
+        <v>0.1338044896403581</v>
       </c>
       <c r="T5" t="n">
-        <v>48.57898630491038</v>
+        <v>55.63375633683128</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[41.96751485841949, 55.19045775140127]</t>
+          <t>[46.79630712077991, 64.47120555288265]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>23.90126126126178</v>
+        <v>24.48136136136191</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.9309109109114</v>
+        <v>22.8869869869875</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.87161161161216</v>
+        <v>26.07573573573632</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.82000000000028</v>
+        <v>23.3100000000002</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.261627085609064e-08</v>
+        <v>3.133219239614959e-10</v>
       </c>
       <c r="I6" t="n">
-        <v>2.261627085609064e-08</v>
+        <v>3.133219239614959e-10</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>49.15465332263229</v>
+        <v>51.12785472923869</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[32.342338324680796, 65.96696832058379]</t>
+          <t>[36.00093948137469, 66.2547699771027]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.566744062906025e-07</v>
+        <v>1.967248008938327e-08</v>
       </c>
       <c r="O6" t="n">
-        <v>4.566744062906025e-07</v>
+        <v>1.967248008938327e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2138421425866923</v>
+        <v>-0.2641579408423853</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.5786316799404627, 0.15094739476707808]</t>
+          <t>[-0.5912106295043857, 0.06289474781961513]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.2439325164904809</v>
+        <v>0.1107679696613701</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2439325164904809</v>
+        <v>0.1107679696613701</v>
       </c>
       <c r="T6" t="n">
-        <v>60.20534894854752</v>
+        <v>55.76002196706307</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[50.60366856931404, 69.80702932778101]</t>
+          <t>[47.192825273158846, 64.32721866096729]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8106906906906985</v>
+        <v>0.9800000000000111</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.5722522522522633</v>
+        <v>-0.2333333333333327</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.19363363363366</v>
+        <v>2.193333333333355</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.82000000000028</v>
+        <v>23.3100000000002</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.351842581267306e-09</v>
+        <v>1.447477723237611e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>3.351842581267306e-09</v>
+        <v>1.447477723237611e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>42.0439852175653</v>
+        <v>42.53727188471691</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[28.9186062441158, 55.1693641910148]</t>
+          <t>[26.897141137798975, 58.17740263163484]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>6.652045581034827e-08</v>
+        <v>1.846819479789374e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>6.652045581034827e-08</v>
+        <v>1.846819479789374e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1949737182408073</v>
+        <v>-0.2138421425866923</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.15723686954903915, 0.5471843060306538]</t>
+          <t>[-0.6415264277600778, 0.2138421425866932]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.2707910241837324</v>
+        <v>0.3192945136149061</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2707910241837324</v>
+        <v>0.3192945136149061</v>
       </c>
       <c r="T7" t="n">
-        <v>49.1253954954231</v>
+        <v>51.44468696250733</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[41.50103386572234, 56.74975712512386]</t>
+          <t>[42.35771751609649, 60.531656408918174]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>7.327471962526033e-15</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>7.327471962526033e-15</v>
       </c>
       <c r="X7" t="n">
-        <v>23.08084084084112</v>
+        <v>0.7933333333333401</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.74558558558585</v>
+        <v>-0.7933333333333414</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.41609609609639</v>
+        <v>2.380000000000022</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.82000000000028</v>
+        <v>23.3100000000002</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.090404849219851e-09</v>
+        <v>5.651766388226065e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>2.090404849219851e-09</v>
+        <v>5.651766388226065e-09</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>51.1526342992346</v>
+        <v>50.9408680132377</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[36.95080860929933, 65.35445998916987]</t>
+          <t>[35.47406477323125, 66.40767125324416]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.279998133682739e-09</v>
+        <v>3.567886763811146e-08</v>
       </c>
       <c r="O8" t="n">
-        <v>4.279998133682739e-09</v>
+        <v>3.567886763811146e-08</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.08805264694746207</v>
+        <v>0.09434212172942225</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.4151053356094625, 0.23900004171453837]</t>
+          <t>[-0.27044741562434815, 0.45913165908319264]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5903157769495904</v>
+        <v>0.6049981134181504</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5903157769495904</v>
+        <v>0.6049981134181504</v>
       </c>
       <c r="T8" t="n">
-        <v>52.24440378664944</v>
+        <v>51.98518339694243</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.13401250717306, 61.354795066125824]</t>
+          <t>[42.47247184537703, 61.497894948507835]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>2.375877272697835e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>2.375877272697835e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3338138138138191</v>
+        <v>22.96000000000021</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.9060660660660753</v>
+        <v>21.60666666666686</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.573693693693714</v>
+        <v>24.31333333333355</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_0_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_0_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.69000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>8.792373606958392e-09</v>
+        <v>1.242450820004848e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>8.792373606958392e-09</v>
+        <v>1.242450820004848e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>46.5728414631709</v>
+        <v>46.11092050833417</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[32.23372486717266, 60.91195805916913]</t>
+          <t>[31.52538316799722, 60.69645784867113]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.886800630821142e-08</v>
+        <v>8.878500645792542e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>4.886800630821142e-08</v>
+        <v>8.878500645792542e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.427710775505272</v>
+        <v>1.70444766591158</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0629212381515014, 1.7925003128590422]</t>
+          <t>[1.3145002294299646, 2.0943951023931957]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.108320433322433e-10</v>
+        <v>2.404898502561537e-11</v>
       </c>
       <c r="S2" t="n">
-        <v>5.108320433322433e-10</v>
+        <v>2.404898502561537e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>57.04584444803056</v>
+        <v>50.60049620646883</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.06788677043703, 66.0238021256241]</t>
+          <t>[41.454332600986426, 59.74665981195124]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.576516694967722e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.576516694967722e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>19.85253253253298</v>
+        <v>18.93965965966011</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.36102102102143</v>
+        <v>17.32666666666708</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.34404404404452</v>
+        <v>20.55265265265314</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.69000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.5748069515098e-10</v>
+        <v>3.286324664619755e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>1.5748069515098e-10</v>
+        <v>3.286324664619755e-07</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>50.13902331139472</v>
+        <v>37.75262867861957</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[35.59492813811012, 64.68311848467933]</t>
+          <t>[22.318136001732313, 53.18712135550683]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.236382662916924e-08</v>
+        <v>1.174597362174623e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.236382662916924e-08</v>
+        <v>1.174597362174623e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.226447582482503</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9119738433844251, 1.54092132158058]</t>
+          <t>[0.735868549489501, 1.616395018964118]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.608367104059653e-10</v>
+        <v>2.566525698188826e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>5.608367104059653e-10</v>
+        <v>2.566525698188826e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>54.37877368578868</v>
+        <v>42.74073454321714</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.16600941751654, 62.59153795406082]</t>
+          <t>[34.392267543327804, 51.08920154310648]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.973976537783528e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.973976537783528e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>20.6754354354359</v>
+        <v>21.12500500500551</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.38964964965008</v>
+        <v>19.30388388388435</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.96122122122171</v>
+        <v>22.94612612612668</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.69000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.589625369697757e-08</v>
+        <v>2.634731577355609e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>2.589625369697757e-08</v>
+        <v>2.634731577355609e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>48.42157825414616</v>
+        <v>42.43687562814237</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[30.400905776784185, 66.44225073150814]</t>
+          <t>[26.71701850133732, 58.15673275494743]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.308495029135216e-06</v>
+        <v>2.119128525768232e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>2.308495029135216e-06</v>
+        <v>2.119128525768232e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6352369529781168</v>
+        <v>0.5975001042863468</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.25786846606042424, 1.0126054398958093]</t>
+          <t>[0.2201316173686534, 0.9748685912040402]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.001461943992448367</v>
+        <v>0.002599451648451545</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001461943992448367</v>
+        <v>0.002599451648451545</v>
       </c>
       <c r="T4" t="n">
-        <v>48.6343790685756</v>
+        <v>53.18509192400502</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[39.38821005961305, 57.88054807753816]</t>
+          <t>[45.136673498916, 61.23351034909405]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.282263763703668e-14</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>8.282263763703668e-14</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23.09271271271323</v>
+        <v>23.51847847847904</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.54976976977025</v>
+        <v>21.95751751751804</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.6356556556562</v>
+        <v>25.07943943944004</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.69000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.897484601722567e-08</v>
+        <v>1.279004493870417e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>3.897484601722567e-08</v>
+        <v>1.279004493870417e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>46.0052080473273</v>
+        <v>42.65118992862953</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[30.068249010476542, 61.94216708417806]</t>
+          <t>[26.41678494243702, 58.88559491482205]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5.889916725454469e-07</v>
+        <v>3.465514247569246e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>5.889916725454469e-07</v>
+        <v>3.465514247569246e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2956053147521933</v>
+        <v>0.1949737182408082</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.09434212172942225, 0.6855527512338089]</t>
+          <t>[-0.22013161736865428, 0.6100790538502707]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1338044896403581</v>
+        <v>0.3491916090814429</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1338044896403581</v>
+        <v>0.3491916090814429</v>
       </c>
       <c r="T5" t="n">
-        <v>55.63375633683128</v>
+        <v>53.29889040910097</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.79630712077991, 64.47120555288265]</t>
+          <t>[43.74461523653001, 62.85316558167193]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.199040866595169e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.199040866595169e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>24.48136136136191</v>
+        <v>25.18350350350411</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.8869869869875</v>
+        <v>23.46644644644701</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.07573573573632</v>
+        <v>26.90056056056121</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.3100000000002</v>
+        <v>23.60000000000025</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.133219239614959e-10</v>
+        <v>1.676905588277045e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>3.133219239614959e-10</v>
+        <v>1.676905588277045e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>51.12785472923869</v>
+        <v>35.19505937014719</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[36.00093948137469, 66.2547699771027]</t>
+          <t>[19.819820411439707, 50.570298328854676]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.967248008938327e-08</v>
+        <v>3.324243154767537e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.967248008938327e-08</v>
+        <v>3.324243154767537e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2641579408423853</v>
+        <v>-0.5157369321208467</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.5912106295043857, 0.06289474781961513]</t>
+          <t>[-0.9811580659860013, -0.0503157982556921]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1107679696613701</v>
+        <v>0.03064931044662988</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1107679696613701</v>
+        <v>0.03064931044662988</v>
       </c>
       <c r="T6" t="n">
-        <v>55.76002196706307</v>
+        <v>51.47125965983715</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.192825273158846, 64.32721866096729]</t>
+          <t>[43.122017144177256, 59.82050217549705]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9800000000000111</v>
+        <v>1.937137137137157</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.2333333333333327</v>
+        <v>0.1889889889889897</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.193333333333355</v>
+        <v>3.685285285285324</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.3100000000002</v>
+        <v>23.60000000000025</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.447477723237611e-07</v>
+        <v>2.187826976252083e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>1.447477723237611e-07</v>
+        <v>2.187826976252083e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>42.53727188471691</v>
+        <v>49.00071683234444</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[26.897141137798975, 58.17740263163484]</t>
+          <t>[31.424337955778896, 66.57709570891]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.846819479789374e-06</v>
+        <v>1.159670593997575e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>1.846819479789374e-06</v>
+        <v>1.159670593997575e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2138421425866923</v>
+        <v>0.1446579199851152</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.6415264277600778, 0.2138421425866932]</t>
+          <t>[-0.2830263651882703, 0.5723422051585008]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3192945136149061</v>
+        <v>0.4992100384855687</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3192945136149061</v>
+        <v>0.4992100384855687</v>
       </c>
       <c r="T7" t="n">
-        <v>51.44468696250733</v>
+        <v>56.2319717518537</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.35771751609649, 60.531656408918174]</t>
+          <t>[45.63030060633381, 66.83364289737358]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>7.327471962526033e-15</v>
+        <v>6.306066779870889e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>7.327471962526033e-15</v>
+        <v>6.306066779870889e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7933333333333401</v>
+        <v>23.0566566566569</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.7933333333333414</v>
+        <v>21.45025025025048</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.380000000000022</v>
+        <v>24.66306306306333</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.3100000000002</v>
+        <v>23.60000000000025</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>5.651766388226065e-09</v>
+        <v>1.758637679927233e-10</v>
       </c>
       <c r="I8" t="n">
-        <v>5.651766388226065e-09</v>
+        <v>1.758637679927233e-10</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>50.9408680132377</v>
+        <v>56.0155159531423</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[35.47406477323125, 66.40767125324416]</t>
+          <t>[40.31535873977596, 71.71567316650864]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.567886763811146e-08</v>
+        <v>5.403876013332365e-09</v>
       </c>
       <c r="O8" t="n">
-        <v>3.567886763811146e-08</v>
+        <v>5.403876013332365e-09</v>
       </c>
       <c r="P8" t="n">
-        <v>0.09434212172942225</v>
+        <v>-0.2012631930227693</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.27044741562434815, 0.45913165908319264]</t>
+          <t>[-0.49057903299300065, 0.08805264694746207]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6049981134181504</v>
+        <v>0.1680385364653916</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6049981134181504</v>
+        <v>0.1680385364653916</v>
       </c>
       <c r="T8" t="n">
-        <v>51.98518339694243</v>
+        <v>54.06628154296716</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.47247184537703, 61.497894948507835]</t>
+          <t>[44.914298657943085, 63.21826442799124]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.375877272697835e-14</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="W8" t="n">
-        <v>2.375877272697835e-14</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="X8" t="n">
-        <v>22.96000000000021</v>
+        <v>0.7559559559559652</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.60666666666686</v>
+        <v>-0.3307307307307337</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.31333333333355</v>
+        <v>1.842642642642664</v>
       </c>
     </row>
   </sheetData>
